--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2328471.310192533</v>
+        <v>2444057.436515013</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12453847.07671752</v>
+        <v>12448913.88118193</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9300417.558835108</v>
+        <v>9301421.151885888</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>213.2445435269807</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>182.0513599977942</v>
+        <v>239.807948141505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85.8507540874358</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.774433940770336</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>213.2445435269807</v>
+        <v>239.807948141505</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>33.26205600438101</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1161683026967</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.95454262003122</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S3" t="n">
-        <v>44.62085619503935</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.948228754746669</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.0844911090059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>213.2445435269807</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>194.9858463565393</v>
+        <v>239.807948141505</v>
       </c>
       <c r="V4" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>76.07442792444375</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>320.2362084475288</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>320.2362084475288</v>
+        <v>290.290511414347</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>290.290511414347</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>320.2362084475288</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>282.0640524005833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.70574649852314</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.46855978255017</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>40.3185025319426</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.65464780838167</v>
+        <v>15.09724236790349</v>
       </c>
       <c r="S6" t="n">
-        <v>145.2059886958167</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8476022141223</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>194.9720436511184</v>
       </c>
     </row>
     <row r="7">
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7959266289505</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.9099147197631</v>
       </c>
       <c r="J7" t="n">
-        <v>8.868952140436051</v>
+        <v>12.15545075340505</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>123.5594750121872</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
-        <v>203.1900881963595</v>
+        <v>204.0001972153978</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>236.1725765610488</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>162.7935662592832</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>314.3729145674729</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>59.48550737293749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>22.53856058689956</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>178.1336202134733</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>13.53601007884757</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>124.8808320771208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>71.05846343488149</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,16 +1897,16 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>10.74993283584265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>248.814236965211</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>136.9649966249147</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>28.75188085812118</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>49.33106662725117</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>86.26216629270439</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.00502760852017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>36.22494343870388</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>133.3722917337063</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>139.0903271400893</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>7.408064079030915</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>81.54417886827336</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>93.40444476188721</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>13.03790159951732</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634789</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>136.2892803597729</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>416.348354921325</v>
+        <v>717.0015419180351</v>
       </c>
       <c r="C2" t="n">
-        <v>416.348354921325</v>
+        <v>717.0015419180351</v>
       </c>
       <c r="D2" t="n">
-        <v>416.348354921325</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="E2" t="n">
-        <v>416.348354921325</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="F2" t="n">
-        <v>200.949826106193</v>
+        <v>467.8257905208468</v>
       </c>
       <c r="G2" t="n">
-        <v>17.05956348215845</v>
+        <v>225.595539872862</v>
       </c>
       <c r="H2" t="n">
-        <v>17.05956348215845</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>17.05956348215845</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J2" t="n">
-        <v>30.5697471065107</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>101.5565284515751</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>226.5236696486553</v>
+        <v>262.3106962605494</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2431302647976</v>
+        <v>449.0101090859567</v>
       </c>
       <c r="N2" t="n">
-        <v>575.3388186142429</v>
+        <v>643.344321977939</v>
       </c>
       <c r="O2" t="n">
-        <v>730.1742656760282</v>
+        <v>813.5133472948985</v>
       </c>
       <c r="P2" t="n">
-        <v>827.8217366396342</v>
+        <v>924.2476725444249</v>
       </c>
       <c r="Q2" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R2" t="n">
-        <v>847.1454125515889</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="S2" t="n">
-        <v>847.1454125515889</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="T2" t="n">
-        <v>847.1454125515889</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="U2" t="n">
-        <v>847.1454125515889</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="V2" t="n">
-        <v>847.1454125515889</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="W2" t="n">
-        <v>631.746883736457</v>
+        <v>717.0015419180351</v>
       </c>
       <c r="X2" t="n">
-        <v>631.746883736457</v>
+        <v>717.0015419180351</v>
       </c>
       <c r="Y2" t="n">
-        <v>631.746883736457</v>
+        <v>717.0015419180351</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>783.7100944967402</v>
+        <v>291.1400477153555</v>
       </c>
       <c r="C3" t="n">
-        <v>609.2570652156132</v>
+        <v>291.1400477153555</v>
       </c>
       <c r="D3" t="n">
-        <v>460.322655554362</v>
+        <v>257.5420113472939</v>
       </c>
       <c r="E3" t="n">
-        <v>301.0852005489065</v>
+        <v>257.5420113472939</v>
       </c>
       <c r="F3" t="n">
-        <v>154.5506425757915</v>
+        <v>257.5420113472939</v>
       </c>
       <c r="G3" t="n">
-        <v>17.05956348215845</v>
+        <v>120.1006137065158</v>
       </c>
       <c r="H3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J3" t="n">
-        <v>49.58400458051115</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K3" t="n">
-        <v>109.3290061694342</v>
+        <v>86.7924555146774</v>
       </c>
       <c r="L3" t="n">
-        <v>235.9860749520332</v>
+        <v>224.0220535303713</v>
       </c>
       <c r="M3" t="n">
-        <v>403.145768365604</v>
+        <v>403.519389884976</v>
       </c>
       <c r="N3" t="n">
-        <v>589.1383263803878</v>
+        <v>602.1761315376407</v>
       </c>
       <c r="O3" t="n">
-        <v>737.0653851695868</v>
+        <v>761.6884442064013</v>
       </c>
       <c r="P3" t="n">
-        <v>836.4568250845134</v>
+        <v>870.3780717337002</v>
       </c>
       <c r="Q3" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R3" t="n">
-        <v>828.7816664109214</v>
+        <v>938.1198929682066</v>
       </c>
       <c r="S3" t="n">
-        <v>783.7100944967402</v>
+        <v>938.1198929682066</v>
       </c>
       <c r="T3" t="n">
-        <v>783.7100944967402</v>
+        <v>741.1305971282942</v>
       </c>
       <c r="U3" t="n">
-        <v>783.7100944967402</v>
+        <v>741.1305971282942</v>
       </c>
       <c r="V3" t="n">
-        <v>783.7100944967402</v>
+        <v>741.1305971282942</v>
       </c>
       <c r="W3" t="n">
-        <v>783.7100944967402</v>
+        <v>498.9003464803094</v>
       </c>
       <c r="X3" t="n">
-        <v>783.7100944967402</v>
+        <v>498.9003464803094</v>
       </c>
       <c r="Y3" t="n">
-        <v>783.7100944967402</v>
+        <v>291.1400477153555</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.05956348215845</v>
+        <v>21.15254368439784</v>
       </c>
       <c r="C4" t="n">
-        <v>17.05956348215845</v>
+        <v>21.15254368439784</v>
       </c>
       <c r="D4" t="n">
-        <v>17.05956348215845</v>
+        <v>21.15254368439784</v>
       </c>
       <c r="E4" t="n">
-        <v>17.05956348215845</v>
+        <v>21.15254368439784</v>
       </c>
       <c r="F4" t="n">
-        <v>17.05956348215845</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G4" t="n">
-        <v>17.05956348215845</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H4" t="n">
-        <v>17.05956348215845</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I4" t="n">
-        <v>17.05956348215845</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J4" t="n">
-        <v>17.05956348215845</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K4" t="n">
-        <v>17.05956348215845</v>
+        <v>60.3450407022849</v>
       </c>
       <c r="L4" t="n">
-        <v>195.82338068234</v>
+        <v>245.1780356031032</v>
       </c>
       <c r="M4" t="n">
-        <v>394.6938844777624</v>
+        <v>450.4476363223412</v>
       </c>
       <c r="N4" t="n">
-        <v>594.2703086122145</v>
+        <v>656.2710011584454</v>
       </c>
       <c r="O4" t="n">
-        <v>762.5951431661857</v>
+        <v>830.3658965470443</v>
       </c>
       <c r="P4" t="n">
-        <v>852.9781741079227</v>
+        <v>955.8134731456599</v>
       </c>
       <c r="Q4" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R4" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="S4" t="n">
-        <v>644.8120214725632</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="T4" t="n">
-        <v>429.4134926574312</v>
+        <v>733.6025958783848</v>
       </c>
       <c r="U4" t="n">
-        <v>232.4580922972905</v>
+        <v>491.3723452304</v>
       </c>
       <c r="V4" t="n">
-        <v>17.05956348215845</v>
+        <v>491.3723452304</v>
       </c>
       <c r="W4" t="n">
-        <v>17.05956348215845</v>
+        <v>249.1420945824152</v>
       </c>
       <c r="X4" t="n">
-        <v>17.05956348215845</v>
+        <v>21.15254368439784</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.05956348215845</v>
+        <v>21.15254368439784</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>672.5607319233352</v>
+        <v>693.4570757564297</v>
       </c>
       <c r="C5" t="n">
-        <v>672.5607319233352</v>
+        <v>693.4570757564297</v>
       </c>
       <c r="D5" t="n">
-        <v>672.5607319233352</v>
+        <v>616.6142192670926</v>
       </c>
       <c r="E5" t="n">
-        <v>672.5607319233352</v>
+        <v>616.6142192670926</v>
       </c>
       <c r="F5" t="n">
-        <v>349.0898142995688</v>
+        <v>609.6687185178891</v>
       </c>
       <c r="G5" t="n">
-        <v>25.6188966758023</v>
+        <v>316.4459797155184</v>
       </c>
       <c r="H5" t="n">
-        <v>25.6188966758023</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="I5" t="n">
-        <v>25.6188966758023</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="J5" t="n">
-        <v>70.23995380345468</v>
+        <v>59.13673382951981</v>
       </c>
       <c r="K5" t="n">
-        <v>187.8538698679754</v>
+        <v>163.7002683444958</v>
       </c>
       <c r="L5" t="n">
-        <v>370.6660947378292</v>
+        <v>330.3223409084637</v>
       </c>
       <c r="M5" t="n">
-        <v>605.7493564943286</v>
+        <v>547.3909387162864</v>
       </c>
       <c r="N5" t="n">
-        <v>849.2503195768644</v>
+        <v>772.5857417537046</v>
       </c>
       <c r="O5" t="n">
-        <v>1065.846112893872</v>
+        <v>971.8955472416915</v>
       </c>
       <c r="P5" t="n">
-        <v>1216.2046105102</v>
+        <v>1107.500854171413</v>
       </c>
       <c r="Q5" t="n">
-        <v>1280.944833790115</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="R5" t="n">
-        <v>1280.944833790115</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="S5" t="n">
-        <v>1280.944833790115</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="T5" t="n">
-        <v>1280.944833790115</v>
+        <v>947.1346617691264</v>
       </c>
       <c r="U5" t="n">
-        <v>1280.944833790115</v>
+        <v>693.4570757564297</v>
       </c>
       <c r="V5" t="n">
-        <v>1280.944833790115</v>
+        <v>693.4570757564297</v>
       </c>
       <c r="W5" t="n">
-        <v>957.4739161663487</v>
+        <v>693.4570757564297</v>
       </c>
       <c r="X5" t="n">
-        <v>957.4739161663487</v>
+        <v>693.4570757564297</v>
       </c>
       <c r="Y5" t="n">
-        <v>672.5607319233352</v>
+        <v>693.4570757564297</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>648.432742456457</v>
+        <v>169.7577988862628</v>
       </c>
       <c r="C6" t="n">
-        <v>473.9797131753301</v>
+        <v>169.7577988862628</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0453035140788</v>
+        <v>169.7577988862628</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8078485086233</v>
+        <v>169.7577988862628</v>
       </c>
       <c r="F6" t="n">
-        <v>165.8078485086233</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="G6" t="n">
-        <v>165.8078485086233</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="H6" t="n">
-        <v>66.34465680907766</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="I6" t="n">
-        <v>25.6188966758023</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="J6" t="n">
-        <v>33.37704565919578</v>
+        <v>25.79522430508934</v>
       </c>
       <c r="K6" t="n">
-        <v>124.7917826965291</v>
+        <v>151.2883816419945</v>
       </c>
       <c r="L6" t="n">
-        <v>294.0327190776168</v>
+        <v>308.6105989476062</v>
       </c>
       <c r="M6" t="n">
-        <v>510.8857774273492</v>
+        <v>595.9982052478097</v>
       </c>
       <c r="N6" t="n">
-        <v>747.8869358809326</v>
+        <v>818.7226619044706</v>
       </c>
       <c r="O6" t="n">
-        <v>942.4768987326547</v>
+        <v>1000.252231792101</v>
       </c>
       <c r="P6" t="n">
-        <v>1239.388419973525</v>
+        <v>1126.612649313228</v>
       </c>
       <c r="Q6" t="n">
-        <v>1280.944833790115</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="R6" t="n">
-        <v>1269.172462266497</v>
+        <v>1145.912305891829</v>
       </c>
       <c r="S6" t="n">
-        <v>1122.499746412137</v>
+        <v>998.1992781905751</v>
       </c>
       <c r="T6" t="n">
-        <v>1122.499746412137</v>
+        <v>998.1992781905751</v>
       </c>
       <c r="U6" t="n">
-        <v>894.3708552867607</v>
+        <v>770.0667023715264</v>
       </c>
       <c r="V6" t="n">
-        <v>894.3708552867607</v>
+        <v>534.9145941397837</v>
       </c>
       <c r="W6" t="n">
-        <v>894.3708552867607</v>
+        <v>534.9145941397837</v>
       </c>
       <c r="X6" t="n">
-        <v>686.5193550812279</v>
+        <v>534.9145941397837</v>
       </c>
       <c r="Y6" t="n">
-        <v>686.5193550812279</v>
+        <v>337.9731359063308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.9481156579415</v>
+        <v>307.7493403993907</v>
       </c>
       <c r="C7" t="n">
-        <v>349.9481156579415</v>
+        <v>307.7493403993907</v>
       </c>
       <c r="D7" t="n">
-        <v>349.9481156579415</v>
+        <v>157.632700987055</v>
       </c>
       <c r="E7" t="n">
-        <v>349.9481156579415</v>
+        <v>157.632700987055</v>
       </c>
       <c r="F7" t="n">
-        <v>203.0581681600311</v>
+        <v>157.632700987055</v>
       </c>
       <c r="G7" t="n">
-        <v>34.57743419139427</v>
+        <v>157.632700987055</v>
       </c>
       <c r="H7" t="n">
-        <v>34.57743419139427</v>
+        <v>157.632700987055</v>
       </c>
       <c r="I7" t="n">
-        <v>34.57743419139427</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="J7" t="n">
-        <v>25.6188966758023</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="K7" t="n">
-        <v>141.0270647162228</v>
+        <v>133.2846894279149</v>
       </c>
       <c r="L7" t="n">
-        <v>344.2362207693443</v>
+        <v>329.6518852993044</v>
       </c>
       <c r="M7" t="n">
-        <v>568.8809068957709</v>
+        <v>547.0826837276995</v>
       </c>
       <c r="N7" t="n">
-        <v>793.618660913526</v>
+        <v>764.7780801730507</v>
       </c>
       <c r="O7" t="n">
-        <v>985.1840560939806</v>
+        <v>949.8387182967872</v>
       </c>
       <c r="P7" t="n">
-        <v>1125.580663386631</v>
+        <v>1084.669382195909</v>
       </c>
       <c r="Q7" t="n">
-        <v>1139.348916790962</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="R7" t="n">
-        <v>1014.541366273601</v>
+        <v>967.6652614208776</v>
       </c>
       <c r="S7" t="n">
-        <v>809.2988529439451</v>
+        <v>761.604456152799</v>
       </c>
       <c r="T7" t="n">
-        <v>809.2988529439451</v>
+        <v>761.604456152799</v>
       </c>
       <c r="U7" t="n">
-        <v>570.7406948014716</v>
+        <v>761.604456152799</v>
       </c>
       <c r="V7" t="n">
-        <v>570.7406948014716</v>
+        <v>761.604456152799</v>
       </c>
       <c r="W7" t="n">
-        <v>570.7406948014716</v>
+        <v>472.1872861158384</v>
       </c>
       <c r="X7" t="n">
-        <v>570.7406948014716</v>
+        <v>472.1872861158384</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.9481156579415</v>
+        <v>307.7493403993907</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.953909778728</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704327</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4802,25 +4804,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816102</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872947</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923566</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230823</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740837</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y8" t="n">
-        <v>2377.55374984285</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500118</v>
       </c>
       <c r="K9" t="n">
-        <v>458.7060632252739</v>
+        <v>298.3188265310627</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004312</v>
+        <v>593.0223835625354</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>956.2844025217569</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1357.685180822782</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.86416460182</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>644.9053651971361</v>
+        <v>540.9789253056889</v>
       </c>
       <c r="C10" t="n">
-        <v>644.9053651971361</v>
+        <v>372.042742377782</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>221.9261029654463</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>74.01300938305317</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4960,52 +4962,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.862713590084</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590084</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590084</v>
       </c>
       <c r="U10" t="n">
-        <v>934.3225352340967</v>
+        <v>1533.862713590084</v>
       </c>
       <c r="V10" t="n">
-        <v>934.3225352340967</v>
+        <v>1279.178225384197</v>
       </c>
       <c r="W10" t="n">
-        <v>644.9053651971361</v>
+        <v>989.7610553472364</v>
       </c>
       <c r="X10" t="n">
-        <v>644.9053651971361</v>
+        <v>761.771504449219</v>
       </c>
       <c r="Y10" t="n">
-        <v>644.9053651971361</v>
+        <v>540.9789253056889</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5276,22 +5278,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5543,7 +5545,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.6357307816187</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C19" t="n">
-        <v>793.6995478537118</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D19" t="n">
-        <v>643.582908441376</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>495.6698148589829</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1249.419557310345</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1021.430006412328</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611858</v>
+        <v>800.6374272687975</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,10 +5788,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2906.022356843753</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>2737.086173915846</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>2586.969534503511</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>2586.969534503511</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4369.62983661419</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4080.554609958388</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3825.870121752501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3536.452951715541</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3308.463400817523</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3087.670821673993</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,10 +6025,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>4503.800315021996</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>2757.723669558405</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>2728.681365661313</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
         <v>484.8112968429803</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6445,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,10 +6463,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6491,7 +6493,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6555,13 +6557,13 @@
         <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>3297.041377688059</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>3128.105194760152</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2977.988555347817</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2830.075461765423</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2683.185514267513</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2515.989414982393</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2374.277583824591</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>3699.482421661829</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>3478.689842518299</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>3312.538429711218</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>3940.136393265825</v>
       </c>
       <c r="O33" t="n">
-        <v>2072.35525930079</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P33" t="n">
-        <v>2495.978408795858</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4492432300683</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>228.5361496476752</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,16 +6940,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,13 +6970,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.83890577277</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>3087.702309109632</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>3715.300272664238</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903525</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>855.1271669926552</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>705.0105275803195</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>557.0974339979264</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>410.207486500016</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>243.0113872148959</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>101.299556057094</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,7 +7177,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,10 +7253,10 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L39" t="n">
         <v>119.290296770379</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,16 +7490,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
         <v>1344.266747951538</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876734</v>
+        <v>3033.629298638937</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597665</v>
+        <v>2864.69311571103</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>2714.576476298694</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>2566.663382716301</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038389</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179779</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910814</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570822</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279807</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853365</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580265</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580265</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235169</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.50678425811</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602308</v>
+        <v>4208.161551753571</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396421</v>
+        <v>3953.477063547684</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359461</v>
+        <v>3664.059893510724</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614432</v>
+        <v>3436.070342612707</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179131</v>
+        <v>3215.277763469177</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,19 +7669,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123001</v>
@@ -7691,7 +7693,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>696.7084350851671</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>546.5917956728314</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>398.6787020904383</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>398.6787020904383</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>231.4826028053182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>43.73304569970175</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.7846258892351</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>9.465878650759677</v>
+        <v>46.25131710763709</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8152,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>104.5749857341995</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.23267925886424</v>
+        <v>54.74236624506784</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>43.37616498552026</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>85.29609186049595</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>161.6858453954319</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>14.2582320243219</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039146</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154957</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>153.7108110197803</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>127.2568112467072</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>146.3469868924068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>37.70876137138004</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>80.44045370237359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>119.8635921600912</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>80.98465480592344</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>45.04089287986165</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>12.04875628922497</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>113.0473161837387</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>73.85777223953463</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>144.1654765207638</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>55.21102825632515</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>273.1465727897268</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>4.005432486451014</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>815904.4706539663</v>
+        <v>817331.912296282</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>819241.7307143587</v>
+        <v>818800.928179162</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>824598.4599200644</v>
+        <v>824598.4599200642</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448201</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448202</v>
-      </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>625538.6147597544</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
@@ -26341,19 +26343,19 @@
         <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621309.9391332068</v>
+        <v>652246.4444800894</v>
       </c>
       <c r="C3" t="n">
-        <v>118433.6817166251</v>
+        <v>55881.32342210992</v>
       </c>
       <c r="D3" t="n">
-        <v>331901.1145227989</v>
+        <v>363279.8866276254</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>55794.15534657334</v>
+        <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>27536.23081727163</v>
+        <v>12992.59634440479</v>
       </c>
       <c r="L3" t="n">
-        <v>81077.35350883742</v>
+        <v>88656.3399166625</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269041.6482059987</v>
+        <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>237201.8650125497</v>
+        <v>246054.6603431036</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828186</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26451,13 +26453,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683054</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683054</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59032.15660993008</v>
+        <v>61145.70223437331</v>
       </c>
       <c r="C5" t="n">
-        <v>67545.0625617928</v>
+        <v>65162.40123302706</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313076.3723043159</v>
+        <v>-338147.582575669</v>
       </c>
       <c r="C6" t="n">
-        <v>213126.7623538525</v>
+        <v>269208.986646579</v>
       </c>
       <c r="D6" t="n">
-        <v>67517.39069935773</v>
+        <v>36138.61859453129</v>
       </c>
       <c r="E6" t="n">
-        <v>3933.779164471358</v>
+        <v>3933.779164473439</v>
       </c>
       <c r="F6" t="n">
+        <v>511419.2207890172</v>
+      </c>
+      <c r="G6" t="n">
+        <v>511419.2207890169</v>
+      </c>
+      <c r="H6" t="n">
         <v>511419.2207890174</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>511419.2207890173</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>448674.9100054815</v>
+      </c>
+      <c r="K6" t="n">
+        <v>498426.6244446127</v>
+      </c>
+      <c r="L6" t="n">
+        <v>422762.8808723547</v>
+      </c>
+      <c r="M6" t="n">
+        <v>378811.9270600906</v>
+      </c>
+      <c r="N6" t="n">
+        <v>511419.2207890174</v>
+      </c>
+      <c r="O6" t="n">
         <v>511419.2207890173</v>
       </c>
-      <c r="I6" t="n">
-        <v>511419.2207890172</v>
-      </c>
-      <c r="J6" t="n">
-        <v>455625.065442444</v>
-      </c>
-      <c r="K6" t="n">
-        <v>483882.9899717458</v>
-      </c>
-      <c r="L6" t="n">
-        <v>430341.8672801802</v>
-      </c>
-      <c r="M6" t="n">
-        <v>378811.9270600908</v>
-      </c>
-      <c r="N6" t="n">
-        <v>511419.2207890172</v>
-      </c>
-      <c r="O6" t="n">
-        <v>511419.2207890172</v>
-      </c>
       <c r="P6" t="n">
-        <v>511419.2207890174</v>
+        <v>511419.2207890171</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>662.7110590909658</v>
+        <v>636.9329421575585</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>320.2362084475288</v>
+        <v>290.290511414347</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>92.10150113272482</v>
+        <v>43.45684181949355</v>
       </c>
       <c r="D3" t="n">
-        <v>271.3538330265733</v>
+        <v>297.1319499599831</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241321</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>106.9916649205481</v>
+        <v>50.48256327284196</v>
       </c>
       <c r="D4" t="n">
-        <v>320.3486236525101</v>
+        <v>350.294320685692</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>106.9916649205481</v>
+        <v>50.48256327284196</v>
       </c>
       <c r="L4" t="n">
-        <v>320.34862365251</v>
+        <v>350.2943206856921</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>106.9916649205481</v>
+        <v>50.48256327284196</v>
       </c>
       <c r="L4" t="n">
-        <v>320.3486236525101</v>
+        <v>350.294320685692</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169.4892981364999</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.875093479178</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>193.6315022147308</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>230.9574697466545</v>
+        <v>173.1089558044318</v>
       </c>
       <c r="H2" t="n">
-        <v>315.9823191592251</v>
+        <v>229.1901299877798</v>
       </c>
       <c r="I2" t="n">
-        <v>122.0400102410186</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7476462617291</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>213.0542682979517</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1621402861816</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>135.9964251904323</v>
+        <v>109.433020575908</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>114.1830095602577</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3818381362696</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>47.13922690828119</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>104.2648481356556</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.2176514895044</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8606354454147</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941464</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27546,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>143.4728192681846</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9620113031242</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>153.0787110700107</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>124.5065992268343</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>20.6111386045213</v>
+        <v>17.695841881769</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.0272459073095</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>10.30454602850781</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>91.27705746966066</v>
+        <v>46.45270651659202</v>
       </c>
       <c r="V4" t="n">
-        <v>38.89309979684734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>46.71505019508604</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>278.6086136962392</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>86.63983729418266</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>92.40236400593403</v>
+        <v>122.4516916599537</v>
       </c>
       <c r="H5" t="n">
-        <v>312.1904216779165</v>
+        <v>22.96121735922485</v>
       </c>
       <c r="I5" t="n">
-        <v>107.7656660302875</v>
+        <v>111.7608855401375</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>148.3104082433895</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
-        <v>211.4334670066612</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1325197029027</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>29.00476026988423</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.1738862554703</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.8274371513442</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9180631870527</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.00406368337435</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.22754232370909</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,22 +27748,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.4191488523254</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>10.71065212618598</v>
       </c>
     </row>
     <row r="7">
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>151.6020673305385</v>
+        <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>119.5119801162269</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.8394550385642</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>50.08126810110528</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>55.79108709281164</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>68.36092709600769</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>326.7524312831161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>122.8824874360317</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>108.0935339077273</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.293907770686394</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>23.49248295654204</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>88.4358793293873</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J2" t="n">
-        <v>194.6925546522945</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>291.7936705854496</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>361.9958505225935</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>402.7901328395376</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N2" t="n">
-        <v>409.3076982930003</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>386.4976528982375</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>329.8668048094171</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.7162327717105</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0946840003793</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>52.27242332451626</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T2" t="n">
-        <v>10.0415812661797</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1835126216549115</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.227348860513952</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>11.85360610022686</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>42.25740594313389</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J3" t="n">
-        <v>115.9575517733818</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>198.1899254278166</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>266.4908128936106</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>310.9822090872413</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>319.2129828053371</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>292.0175159486859</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>234.3698012677915</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.6700054227986</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>76.20329153261191</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S3" t="n">
-        <v>22.79746677314292</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>4.947077205317201</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08074663556012848</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.028968055334533</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.148461437428853</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I4" t="n">
-        <v>30.94387570042396</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J4" t="n">
-        <v>72.74804151215147</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K4" t="n">
-        <v>119.5473795197757</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>152.9794870630996</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>161.2954198012123</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>157.4601752313291</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>145.439957494012</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>124.4490091651874</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R4" t="n">
-        <v>46.26614546985999</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>17.93210692796635</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.396499872793003</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05612553029097458</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.664165061672223</v>
+        <v>2.560534440834404</v>
       </c>
       <c r="H5" t="n">
-        <v>27.28438043785065</v>
+        <v>26.22307334219535</v>
       </c>
       <c r="I5" t="n">
-        <v>102.7102235401184</v>
+        <v>98.71500403026846</v>
       </c>
       <c r="J5" t="n">
-        <v>226.117679403103</v>
+        <v>217.3221599977692</v>
       </c>
       <c r="K5" t="n">
-        <v>338.8917864636882</v>
+        <v>325.7095828782896</v>
       </c>
       <c r="L5" t="n">
-        <v>420.4252279698396</v>
+        <v>404.0715387719756</v>
       </c>
       <c r="M5" t="n">
-        <v>467.804073385353</v>
+        <v>449.6074431341644</v>
       </c>
       <c r="N5" t="n">
-        <v>475.3736323668292</v>
+        <v>456.8825616141852</v>
       </c>
       <c r="O5" t="n">
-        <v>448.881841034826</v>
+        <v>431.421247268138</v>
       </c>
       <c r="P5" t="n">
-        <v>383.1102660747929</v>
+        <v>368.2080532600386</v>
       </c>
       <c r="Q5" t="n">
-        <v>287.6998548036564</v>
+        <v>276.5089135976564</v>
       </c>
       <c r="R5" t="n">
-        <v>167.3528585552679</v>
+        <v>160.8431715690643</v>
       </c>
       <c r="S5" t="n">
-        <v>60.70966134285583</v>
+        <v>58.34817857051404</v>
       </c>
       <c r="T5" t="n">
-        <v>11.66238255747016</v>
+        <v>11.20873951475261</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2131332049337777</v>
+        <v>0.2048427552667523</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.425453976157927</v>
+        <v>1.370006705772862</v>
       </c>
       <c r="H6" t="n">
-        <v>13.76688445394629</v>
+        <v>13.23138055312211</v>
       </c>
       <c r="I6" t="n">
-        <v>49.07813031947248</v>
+        <v>47.16909052770599</v>
       </c>
       <c r="J6" t="n">
-        <v>134.6741407913066</v>
+        <v>129.4355896888299</v>
       </c>
       <c r="K6" t="n">
-        <v>230.1795571938876</v>
+        <v>221.2260389756116</v>
       </c>
       <c r="L6" t="n">
-        <v>309.5048205688516</v>
+        <v>297.4657103916032</v>
       </c>
       <c r="M6" t="n">
-        <v>361.1775272045763</v>
+        <v>347.1284534758693</v>
       </c>
       <c r="N6" t="n">
-        <v>370.7368216324074</v>
+        <v>356.3159107264251</v>
       </c>
       <c r="O6" t="n">
-        <v>339.151762476487</v>
+        <v>325.9594463511422</v>
       </c>
       <c r="P6" t="n">
-        <v>272.199189534929</v>
+        <v>261.6111927892055</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.9579496583346</v>
+        <v>174.8801542316376</v>
       </c>
       <c r="R6" t="n">
-        <v>88.50318634426147</v>
+        <v>85.06059178473964</v>
       </c>
       <c r="S6" t="n">
-        <v>26.47718240802112</v>
+        <v>25.44727367959678</v>
       </c>
       <c r="T6" t="n">
-        <v>5.745579842496202</v>
+        <v>5.522088432479208</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0937798668524952</v>
+        <v>0.09013202011663568</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.195052729508299</v>
+        <v>1.148567600611991</v>
       </c>
       <c r="H7" t="n">
-        <v>10.62510517690107</v>
+        <v>10.2118101218048</v>
       </c>
       <c r="I7" t="n">
-        <v>35.9384948110314</v>
+        <v>34.54056020749515</v>
       </c>
       <c r="J7" t="n">
-        <v>84.49022797623672</v>
+        <v>81.20372936326773</v>
       </c>
       <c r="K7" t="n">
-        <v>138.8433989374187</v>
+        <v>133.4426721438294</v>
       </c>
       <c r="L7" t="n">
-        <v>177.6717485307157</v>
+        <v>170.7606776400773</v>
       </c>
       <c r="M7" t="n">
-        <v>187.3299474082872</v>
+        <v>180.0431921577505</v>
       </c>
       <c r="N7" t="n">
-        <v>182.8756599619383</v>
+        <v>175.7621674645605</v>
       </c>
       <c r="O7" t="n">
-        <v>168.9152712581367</v>
+        <v>162.344809584684</v>
       </c>
       <c r="P7" t="n">
-        <v>144.5361955761673</v>
+        <v>138.9140305321992</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.0693699227358</v>
+        <v>96.17687426579133</v>
       </c>
       <c r="R7" t="n">
-        <v>53.73391636498223</v>
+        <v>51.64377593297186</v>
       </c>
       <c r="S7" t="n">
-        <v>20.8265098406128</v>
+        <v>20.01640082157441</v>
       </c>
       <c r="T7" t="n">
-        <v>5.106134389717276</v>
+        <v>4.907516111705776</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06518469433681638</v>
+        <v>0.0626491418515632</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,16 +31843,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32075,31 +32077,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32570,7 +32572,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,31 +32788,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>285.886712892598</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33025,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33275,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>514.695376254093</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>197.6412480909884</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,13 +33739,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>169.2687847673327</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>150.7833302198383</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>162.5000833330458</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -34208,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.64665012560826</v>
+        <v>21.44873736705381</v>
       </c>
       <c r="K2" t="n">
-        <v>71.70381954046906</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L2" t="n">
-        <v>126.2294355526062</v>
+        <v>140.7360160012658</v>
       </c>
       <c r="M2" t="n">
-        <v>172.4438996122649</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>179.8946346964094</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>156.3994414765508</v>
+        <v>171.8879043605651</v>
       </c>
       <c r="P2" t="n">
-        <v>98.63380905414755</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.41054289726102</v>
+        <v>35.33749497130813</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>32.85297080641686</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>60.34848645345761</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L3" t="n">
-        <v>127.9364331137364</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>168.848175165223</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>187.8712707220038</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4212715042414</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>100.3953938534613</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.68823133677705</v>
+        <v>89.7512331639593</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.57616651612577</v>
       </c>
       <c r="L4" t="n">
-        <v>180.5695123234157</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>200.8792967630528</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>201.5923476105577</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>170.0250854080517</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>91.29599085023933</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353415</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.0717748764167</v>
+        <v>36.27625547108292</v>
       </c>
       <c r="K5" t="n">
-        <v>118.8019354187077</v>
+        <v>105.6197318333091</v>
       </c>
       <c r="L5" t="n">
-        <v>184.6588129998523</v>
+        <v>168.3051238019883</v>
       </c>
       <c r="M5" t="n">
-        <v>237.4578401580802</v>
+        <v>219.2612099068917</v>
       </c>
       <c r="N5" t="n">
-        <v>245.9605687702383</v>
+        <v>227.4694980175943</v>
       </c>
       <c r="O5" t="n">
-        <v>218.7836296131393</v>
+        <v>201.3230358464513</v>
       </c>
       <c r="P5" t="n">
-        <v>151.8772703195234</v>
+        <v>136.9750575047691</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.39416492920694</v>
+        <v>54.20322372320695</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.836514124639876</v>
+        <v>2.597963022163214</v>
       </c>
       <c r="K6" t="n">
-        <v>92.33811821952864</v>
+        <v>126.7607649867729</v>
       </c>
       <c r="L6" t="n">
-        <v>170.9504407889774</v>
+        <v>158.911330611729</v>
       </c>
       <c r="M6" t="n">
-        <v>219.043493282558</v>
+        <v>290.290511414347</v>
       </c>
       <c r="N6" t="n">
-        <v>239.3951095490741</v>
+        <v>224.9741986430918</v>
       </c>
       <c r="O6" t="n">
-        <v>196.5555180320426</v>
+        <v>183.3632019066978</v>
       </c>
       <c r="P6" t="n">
-        <v>299.9106275160307</v>
+        <v>127.6367853748753</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.97617557231311</v>
+        <v>34.89838014561607</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>116.5739071115358</v>
+        <v>111.1731803179466</v>
       </c>
       <c r="L7" t="n">
-        <v>205.2617737910318</v>
+        <v>198.3507029003934</v>
       </c>
       <c r="M7" t="n">
-        <v>226.9138243701278</v>
+        <v>219.6270691195911</v>
       </c>
       <c r="N7" t="n">
-        <v>227.0078323411668</v>
+        <v>219.8943398437891</v>
       </c>
       <c r="O7" t="n">
-        <v>193.5003991721764</v>
+        <v>186.9299374987236</v>
       </c>
       <c r="P7" t="n">
-        <v>141.8147548410608</v>
+        <v>136.1925897970927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.90732667104145</v>
+        <v>10.01483101409694</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091791</v>
       </c>
       <c r="K9" t="n">
-        <v>348.5948060356187</v>
+        <v>186.5874962434856</v>
       </c>
       <c r="L9" t="n">
+        <v>297.6803606378513</v>
+      </c>
+      <c r="M9" t="n">
+        <v>366.9313322820418</v>
+      </c>
+      <c r="N9" t="n">
+        <v>405.4553316171971</v>
+      </c>
+      <c r="O9" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M9" t="n">
-        <v>366.9313322820404</v>
-      </c>
-      <c r="N9" t="n">
-        <v>391.1970995928739</v>
-      </c>
-      <c r="O9" t="n">
-        <v>335.424681996123</v>
-      </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235333</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667043</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>151.9123054782678</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36923,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>27.13475084531435</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>23.94570355317166</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37938,7 +37940,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096395</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2444057.436515013</v>
+        <v>2439753.789243631</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="D2" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>191.429891035389</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>239.807948141505</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>85.8507540874358</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.26205600438101</v>
+        <v>46.58246887583931</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.948228754746669</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>47.22352441016195</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>290.2905114143455</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>76.07442792444375</v>
+        <v>290.2905114143455</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>236.0696336377434</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>290.290511414347</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
-        <v>290.290511414347</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493787</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>290.2905114143455</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790349</v>
+        <v>15.09724236790368</v>
       </c>
       <c r="S6" t="n">
-        <v>146.235897424241</v>
+        <v>48.97773938789432</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>194.9720436511184</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>149.9979284871872</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197631</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340505</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441976</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153978</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>162.7935662592832</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>314.3729145674729</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>69.29522222634957</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>22.53856058689956</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>13.53601007884757</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>122.8704329402469</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856928</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>71.05846343488149</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>219.4517041866519</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7058473537592</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>248.814236965211</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>49.33106662725117</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>36.22494343870388</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>139.0903271400893</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>7.408064079030915</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>81.54417886827336</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>13.03790159951732</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717.0015419180351</v>
+        <v>717.001541918034</v>
       </c>
       <c r="C2" t="n">
-        <v>717.0015419180351</v>
+        <v>474.7712912700496</v>
       </c>
       <c r="D2" t="n">
-        <v>474.7712912700503</v>
+        <v>232.5410406220651</v>
       </c>
       <c r="E2" t="n">
-        <v>474.7712912700503</v>
+        <v>39.17751432369234</v>
       </c>
       <c r="F2" t="n">
-        <v>467.8257905208468</v>
+        <v>32.23201357448886</v>
       </c>
       <c r="G2" t="n">
-        <v>225.595539872862</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J2" t="n">
         <v>40.41888584470371</v>
@@ -4336,46 +4336,46 @@
         <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605494</v>
+        <v>262.3106962605492</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859567</v>
+        <v>449.0101090859565</v>
       </c>
       <c r="N2" t="n">
-        <v>643.344321977939</v>
+        <v>643.3443219779385</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948985</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444249</v>
+        <v>924.2476725444236</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="W2" t="n">
-        <v>717.0015419180351</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="X2" t="n">
-        <v>717.0015419180351</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.0015419180351</v>
+        <v>959.2317925660185</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291.1400477153555</v>
+        <v>66.23763471580452</v>
       </c>
       <c r="C3" t="n">
-        <v>291.1400477153555</v>
+        <v>66.23763471580452</v>
       </c>
       <c r="D3" t="n">
-        <v>257.5420113472939</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E3" t="n">
-        <v>257.5420113472939</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F3" t="n">
-        <v>257.5420113472939</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G3" t="n">
-        <v>120.1006137065158</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K3" t="n">
-        <v>86.7924555146774</v>
+        <v>152.9092351450199</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303713</v>
+        <v>290.1388331607136</v>
       </c>
       <c r="M3" t="n">
-        <v>403.519389884976</v>
+        <v>469.6361695153182</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376407</v>
+        <v>668.2929111679827</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064013</v>
+        <v>827.805223836743</v>
       </c>
       <c r="P3" t="n">
-        <v>870.3780717337002</v>
+        <v>936.4948513640417</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682066</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682066</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="T3" t="n">
-        <v>741.1305971282942</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="U3" t="n">
-        <v>741.1305971282942</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="V3" t="n">
-        <v>741.1305971282942</v>
+        <v>724.0796843342757</v>
       </c>
       <c r="W3" t="n">
-        <v>498.9003464803094</v>
+        <v>481.8494336862913</v>
       </c>
       <c r="X3" t="n">
-        <v>498.9003464803094</v>
+        <v>273.9979334807584</v>
       </c>
       <c r="Y3" t="n">
-        <v>291.1400477153555</v>
+        <v>66.23763471580452</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.15254368439784</v>
+        <v>510.449662524471</v>
       </c>
       <c r="C4" t="n">
-        <v>21.15254368439784</v>
+        <v>341.5134795965641</v>
       </c>
       <c r="D4" t="n">
-        <v>21.15254368439784</v>
+        <v>191.3968401842284</v>
       </c>
       <c r="E4" t="n">
-        <v>21.15254368439784</v>
+        <v>191.3968401842284</v>
       </c>
       <c r="F4" t="n">
-        <v>19.1846358513204</v>
+        <v>191.3968401842284</v>
       </c>
       <c r="G4" t="n">
-        <v>19.1846358513204</v>
+        <v>191.3968401842284</v>
       </c>
       <c r="H4" t="n">
-        <v>19.1846358513204</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="I4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K4" t="n">
-        <v>60.3450407022849</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>245.1780356031032</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223412</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584454</v>
+        <v>656.2710011584443</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470443</v>
+        <v>830.3658965470431</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456599</v>
+        <v>955.8134731456587</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="T4" t="n">
-        <v>733.6025958783848</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="U4" t="n">
-        <v>491.3723452304</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="V4" t="n">
-        <v>491.3723452304</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="W4" t="n">
-        <v>249.1420945824152</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="X4" t="n">
-        <v>21.15254368439784</v>
+        <v>731.2422416680012</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.15254368439784</v>
+        <v>510.449662524471</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>693.4570757564297</v>
+        <v>574.7165680526437</v>
       </c>
       <c r="C5" t="n">
-        <v>693.4570757564297</v>
+        <v>574.7165680526437</v>
       </c>
       <c r="D5" t="n">
-        <v>616.6142192670926</v>
+        <v>281.4938292502744</v>
       </c>
       <c r="E5" t="n">
-        <v>616.6142192670926</v>
+        <v>43.0396538586144</v>
       </c>
       <c r="F5" t="n">
-        <v>609.6687185178891</v>
+        <v>36.09415310941093</v>
       </c>
       <c r="G5" t="n">
-        <v>316.4459797155184</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314776</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314776</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951981</v>
+        <v>59.13673382951913</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444958</v>
+        <v>163.7002683444945</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084637</v>
+        <v>330.3223409084621</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162864</v>
+        <v>547.3909387162837</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537046</v>
+        <v>772.5857417537013</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416915</v>
+        <v>971.8955472416872</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171413</v>
+        <v>1107.500854171408</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657388</v>
+        <v>1161.162045657382</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657388</v>
+        <v>1161.162045657382</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657388</v>
+        <v>1161.162045657382</v>
       </c>
       <c r="T5" t="n">
-        <v>947.1346617691264</v>
+        <v>1161.162045657382</v>
       </c>
       <c r="U5" t="n">
-        <v>693.4570757564297</v>
+        <v>1161.162045657382</v>
       </c>
       <c r="V5" t="n">
-        <v>693.4570757564297</v>
+        <v>867.9393068550129</v>
       </c>
       <c r="W5" t="n">
-        <v>693.4570757564297</v>
+        <v>867.9393068550129</v>
       </c>
       <c r="X5" t="n">
-        <v>693.4570757564297</v>
+        <v>867.9393068550129</v>
       </c>
       <c r="Y5" t="n">
-        <v>693.4570757564297</v>
+        <v>867.9393068550129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169.7577988862628</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="C6" t="n">
-        <v>169.7577988862628</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="D6" t="n">
-        <v>169.7577988862628</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="E6" t="n">
-        <v>169.7577988862628</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314776</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314776</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314776</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314776</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508934</v>
+        <v>25.79522430508894</v>
       </c>
       <c r="K6" t="n">
-        <v>151.2883816419945</v>
+        <v>108.3459783063286</v>
       </c>
       <c r="L6" t="n">
-        <v>308.6105989476062</v>
+        <v>265.6681956119396</v>
       </c>
       <c r="M6" t="n">
-        <v>595.9982052478097</v>
+        <v>468.6126709702514</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044706</v>
+        <v>691.3371276269115</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792101</v>
+        <v>872.8666975145417</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313228</v>
+        <v>999.2271150356676</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657388</v>
+        <v>1161.162045657382</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891829</v>
+        <v>1145.912305891823</v>
       </c>
       <c r="S6" t="n">
-        <v>998.1992781905751</v>
+        <v>1096.439841863647</v>
       </c>
       <c r="T6" t="n">
-        <v>998.1992781905751</v>
+        <v>1096.439841863647</v>
       </c>
       <c r="U6" t="n">
-        <v>770.0667023715264</v>
+        <v>1096.439841863647</v>
       </c>
       <c r="V6" t="n">
-        <v>534.9145941397837</v>
+        <v>861.2877336319041</v>
       </c>
       <c r="W6" t="n">
-        <v>534.9145941397837</v>
+        <v>607.0503769037024</v>
       </c>
       <c r="X6" t="n">
-        <v>534.9145941397837</v>
+        <v>399.1988766981696</v>
       </c>
       <c r="Y6" t="n">
-        <v>337.9731359063308</v>
+        <v>191.4385779332157</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.7493403993907</v>
+        <v>174.7362999911145</v>
       </c>
       <c r="C7" t="n">
-        <v>307.7493403993907</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="D7" t="n">
-        <v>157.632700987055</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="E7" t="n">
-        <v>157.632700987055</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="F7" t="n">
-        <v>157.632700987055</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="G7" t="n">
-        <v>157.632700987055</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="H7" t="n">
-        <v>157.632700987055</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739528</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314776</v>
+        <v>23.22324091314764</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279149</v>
+        <v>133.2846894279145</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993044</v>
+        <v>329.6518852993036</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276995</v>
+        <v>547.0826837276983</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730507</v>
+        <v>764.7780801730491</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967872</v>
+        <v>949.8387182967851</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195909</v>
+        <v>1084.669382195907</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="R7" t="n">
-        <v>967.6652614208776</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="S7" t="n">
-        <v>761.604456152799</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="T7" t="n">
-        <v>761.604456152799</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="U7" t="n">
-        <v>761.604456152799</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="V7" t="n">
-        <v>761.604456152799</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="W7" t="n">
-        <v>472.1872861158384</v>
+        <v>805.1668948629017</v>
       </c>
       <c r="X7" t="n">
-        <v>472.1872861158384</v>
+        <v>577.1773439648844</v>
       </c>
       <c r="Y7" t="n">
-        <v>307.7493403993907</v>
+        <v>356.3847648213542</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.262284242502</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="C8" t="n">
-        <v>1540.262284242502</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>532.2278653236203</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>121.2419605340128</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704327</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816102</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740837</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795505</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310627</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625354</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217569</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1357.685180822782</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.86416460182</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.9789253056889</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>372.042742377782</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>221.9261029654463</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>74.01300938305317</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1279.178225384197</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>989.7610553472364</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>761.771504449219</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>540.9789253056889</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803656</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979724</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000621</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000621</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000621</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5281,25 +5281,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1870.601831589881</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5509,49 +5509,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>150.8995423128889</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687975</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408906</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1249.419557310345</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1021.430006412328</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>800.6374272687975</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,19 +5767,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3324.292621228102</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3951.890584782709</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6305,19 +6305,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3297.041377688059</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3128.105194760152</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2977.988555347817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2830.075461765423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2683.185514267513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2515.989414982393</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2374.277583824591</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3927.471972559846</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3699.482421661829</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3478.689842518299</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2715.159942084666</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3312.538429711218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3940.136393265825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1024.063349920562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>855.1271669926552</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>705.0105275803195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>557.0974339979264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>410.207486500016</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>243.0113872148959</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>101.299556057094</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7253,25 +7253,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
         <v>779.6143379232838</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3033.629298638937</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2864.69311571103</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>2714.576476298694</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>2566.663382716301</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>2419.773435218391</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4208.161551753571</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3953.477063547684</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3664.059893510724</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3436.070342612707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3215.277763469177</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>66.784625889235</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.7846258892351</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>46.25131710763709</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>111.3252676074456</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506784</v>
+        <v>54.74236624506818</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>43.37616498552026</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>85.29609186049595</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>128.6722568460152</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>14.2582320243219</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039146</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>153.7108110197803</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>25.74504007796544</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>146.3469868924068</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>6.257951202385243</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>24.81829093850962</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>37.70876137138004</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>45.04089287986165</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>113.0473161837387</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>73.85777223953463</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>144.1654765207638</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>273.1465727897268</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>817331.912296282</v>
+        <v>817331.9122962819</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>824598.4599200642</v>
+        <v>824598.4599200644</v>
       </c>
     </row>
     <row r="5">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597544</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597546</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800894</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210992</v>
+        <v>55881.32342210865</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276254</v>
+        <v>363279.8866276249</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353588</v>
+        <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440479</v>
+        <v>12992.59634440446</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.3399166625</v>
+        <v>88656.33991666285</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431036</v>
+        <v>246054.6603431041</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828186</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437331</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302706</v>
+        <v>65162.40123302695</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-338147.582575669</v>
       </c>
       <c r="C6" t="n">
-        <v>269208.986646579</v>
+        <v>269208.98664658</v>
       </c>
       <c r="D6" t="n">
-        <v>36138.61859453129</v>
+        <v>36138.61859453164</v>
       </c>
       <c r="E6" t="n">
-        <v>3933.779164473439</v>
+        <v>3586.39991011435</v>
       </c>
       <c r="F6" t="n">
-        <v>511419.2207890172</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="G6" t="n">
-        <v>511419.2207890169</v>
+        <v>511071.84153466</v>
       </c>
       <c r="H6" t="n">
-        <v>511419.2207890174</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="I6" t="n">
-        <v>511419.2207890173</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="J6" t="n">
-        <v>448674.9100054815</v>
+        <v>448327.5307511248</v>
       </c>
       <c r="K6" t="n">
-        <v>498426.6244446127</v>
+        <v>498079.2451902558</v>
       </c>
       <c r="L6" t="n">
-        <v>422762.8808723547</v>
+        <v>422415.5016179973</v>
       </c>
       <c r="M6" t="n">
-        <v>378811.9270600906</v>
+        <v>378464.5478057336</v>
       </c>
       <c r="N6" t="n">
-        <v>511419.2207890174</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="O6" t="n">
-        <v>511419.2207890173</v>
+        <v>511071.8415346603</v>
       </c>
       <c r="P6" t="n">
-        <v>511419.2207890171</v>
+        <v>511071.8415346601</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575585</v>
+        <v>636.9329421575571</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>290.290511414347</v>
+        <v>290.2905114143455</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949355</v>
+        <v>43.45684181949252</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599831</v>
+        <v>297.131949959982</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284196</v>
+        <v>50.48256327284092</v>
       </c>
       <c r="D4" t="n">
-        <v>350.294320685692</v>
+        <v>350.2943206856932</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415048</v>
+        <v>239.8079481415047</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284196</v>
+        <v>50.48256327284069</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856921</v>
+        <v>350.2943206856935</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284196</v>
+        <v>50.48256327284092</v>
       </c>
       <c r="L4" t="n">
-        <v>350.294320685692</v>
+        <v>350.2943206856932</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>142.925893521976</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.4649436295029</v>
       </c>
       <c r="D2" t="n">
-        <v>114.875093479178</v>
+        <v>114.8750934791783</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>190.5004790368728</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>173.1089558044318</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>229.1901299877798</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>109.433020575908</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>114.1830095602577</v>
+        <v>100.8625966887994</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941464</v>
+        <v>11.88703501941498</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>143.4728192681846</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>105.4885722590706</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>46.45270651659202</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508604</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>92.44333024913504</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>278.6086136962392</v>
+        <v>64.39253020633743</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>145.8607364345184</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>122.4516916599537</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>22.96121735922485</v>
+        <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401375</v>
+        <v>111.7608855401377</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>150.6718910157314</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493788</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>37.46174705578937</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337435</v>
+        <v>99.00406368337438</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370909</v>
+        <v>42.22754232370919</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>97.25815803634677</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.71065212618598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>17.24889261144062</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.15545075340522</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>55.79108709281164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.36092709600769</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>342.2524805466044</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>122.8824874360317</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-3.651317719713963e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834404</v>
+        <v>2.560534440834398</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219535</v>
+        <v>26.22307334219529</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026846</v>
+        <v>98.71500403026825</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977692</v>
+        <v>217.3221599977688</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782896</v>
+        <v>325.7095828782889</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719756</v>
+        <v>404.0715387719747</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341644</v>
+        <v>449.6074431341634</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141852</v>
+        <v>456.8825616141842</v>
       </c>
       <c r="O5" t="n">
-        <v>431.421247268138</v>
+        <v>431.4212472681371</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600386</v>
+        <v>368.2080532600378</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976564</v>
+        <v>276.5089135976559</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690643</v>
+        <v>160.8431715690639</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051404</v>
+        <v>58.34817857051392</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475261</v>
+        <v>11.20873951475259</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667523</v>
+        <v>0.2048427552667519</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772862</v>
+        <v>1.370006705772859</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312211</v>
+        <v>13.23138055312208</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770599</v>
+        <v>47.16909052770589</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888299</v>
+        <v>129.4355896888296</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756116</v>
+        <v>221.2260389756111</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916032</v>
+        <v>297.4657103916026</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758693</v>
+        <v>347.1284534758686</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264251</v>
+        <v>356.3159107264244</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511422</v>
+        <v>325.9594463511415</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892055</v>
+        <v>261.6111927892049</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316376</v>
+        <v>174.8801542316372</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473964</v>
+        <v>85.06059178473946</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959678</v>
+        <v>25.44727367959672</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479208</v>
+        <v>5.522088432479197</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663568</v>
+        <v>0.09013202011663549</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611991</v>
+        <v>1.148567600611988</v>
       </c>
       <c r="H7" t="n">
-        <v>10.2118101218048</v>
+        <v>10.21181012180477</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749515</v>
+        <v>34.54056020749507</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326773</v>
+        <v>81.20372936326756</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438294</v>
+        <v>133.4426721438291</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400773</v>
+        <v>170.7606776400769</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577505</v>
+        <v>180.0431921577501</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645605</v>
+        <v>175.7621674645601</v>
       </c>
       <c r="O7" t="n">
-        <v>162.344809584684</v>
+        <v>162.3448095846836</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321992</v>
+        <v>138.914030532199</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579133</v>
+        <v>96.17687426579113</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297186</v>
+        <v>51.64377593297174</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157441</v>
+        <v>20.01640082157437</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705776</v>
+        <v>4.907516111705767</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0626491418515632</v>
+        <v>0.06264914185156306</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>567.5882829286713</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>172.7144981745678</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>285.886712892598</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>514.695376254093</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>200.3460366764704</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>512.9101366533182</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268384</v>
+        <v>135.0753528219187</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.7512331639593</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.57616651612577</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>147.4099394863213</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108292</v>
+        <v>36.27625547108246</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333091</v>
+        <v>105.6197318333083</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019883</v>
+        <v>168.3051238019875</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068917</v>
+        <v>219.2612099068907</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175943</v>
+        <v>227.4694980175933</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464513</v>
+        <v>201.3230358464504</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047691</v>
+        <v>136.9750575047683</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320695</v>
+        <v>54.20322372320638</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163214</v>
+        <v>2.597963022162929</v>
       </c>
       <c r="K6" t="n">
-        <v>126.7607649867729</v>
+        <v>83.38460000125215</v>
       </c>
       <c r="L6" t="n">
-        <v>158.911330611729</v>
+        <v>158.9113306117284</v>
       </c>
       <c r="M6" t="n">
-        <v>290.290511414347</v>
+        <v>204.9944195538503</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430918</v>
+        <v>224.9741986430911</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066978</v>
+        <v>183.3632019066971</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748753</v>
+        <v>127.6367853748747</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561607</v>
+        <v>163.5706369916309</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179466</v>
+        <v>111.1731803179463</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003934</v>
+        <v>198.350702900393</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195911</v>
+        <v>219.6270691195907</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437891</v>
+        <v>219.8943398437887</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987236</v>
+        <v>186.9299374987233</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970927</v>
+        <v>136.1925897970924</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409694</v>
+        <v>10.01483101409674</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>405.4553316171971</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667043</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>425.454249006653</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>45.87687150790109</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>151.9123054782678</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>372.0991318096486</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>57.74979223202591</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>370.3138922088737</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2439753.789243631</v>
+        <v>2441514.319546415</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.8079481415046</v>
+        <v>191.4298910353889</v>
       </c>
       <c r="C2" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="E2" t="n">
-        <v>191.429891035389</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>46.58246887583931</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>5.506984437362438</v>
       </c>
     </row>
     <row r="4">
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>47.22352441016195</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>17.77798562034592</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143455</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.2905114143468</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2905114143455</v>
+        <v>290.2905114143468</v>
       </c>
       <c r="E5" t="n">
-        <v>236.0696336377434</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>43.80077240437782</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430065</v>
+        <v>290.2905114143468</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>290.2905114143455</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790368</v>
+        <v>15.0972423679035</v>
       </c>
       <c r="S6" t="n">
-        <v>48.97773938789432</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>195.3423687542131</v>
       </c>
     </row>
     <row r="7">
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>149.9979284871872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>42.35782667307184</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.15545075340506</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>69.29522222634957</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>173.1932572884168</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>92.8796258427441</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560547</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D13" t="n">
-        <v>122.8704329402469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856928</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>219.4517041866519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>140.7058473537592</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>65.78783178799263</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>111.3213230702132</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717.001541918034</v>
+        <v>765.8682662676454</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7712912700496</v>
+        <v>523.638015619661</v>
       </c>
       <c r="D2" t="n">
-        <v>232.5410406220651</v>
+        <v>281.4077649716767</v>
       </c>
       <c r="E2" t="n">
-        <v>39.17751432369234</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23201357448886</v>
+        <v>32.23201357448885</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470371</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.982040419296</v>
+        <v>122.9820404192954</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605492</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859565</v>
+        <v>449.0101090859556</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779385</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948976</v>
+        <v>813.5133472948968</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444236</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="X2" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.23763471580452</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C3" t="n">
-        <v>66.23763471580452</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450199</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607136</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153182</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679827</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.805223836743</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640417</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660185</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660185</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="T3" t="n">
-        <v>959.2317925660185</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="U3" t="n">
-        <v>959.2317925660185</v>
+        <v>709.9811054793706</v>
       </c>
       <c r="V3" t="n">
-        <v>724.0796843342757</v>
+        <v>474.8289972476279</v>
       </c>
       <c r="W3" t="n">
-        <v>481.8494336862913</v>
+        <v>232.5987465996435</v>
       </c>
       <c r="X3" t="n">
-        <v>273.9979334807584</v>
+        <v>24.7472463941107</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.23763471580452</v>
+        <v>19.18463585132036</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>510.449662524471</v>
+        <v>510.4496625244706</v>
       </c>
       <c r="C4" t="n">
-        <v>341.5134795965641</v>
+        <v>341.5134795965637</v>
       </c>
       <c r="D4" t="n">
-        <v>191.3968401842284</v>
+        <v>191.396840184228</v>
       </c>
       <c r="E4" t="n">
-        <v>191.3968401842284</v>
+        <v>191.396840184228</v>
       </c>
       <c r="F4" t="n">
-        <v>191.3968401842284</v>
+        <v>191.396840184228</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3968401842284</v>
+        <v>191.396840184228</v>
       </c>
       <c r="H4" t="n">
-        <v>143.6963104769941</v>
+        <v>37.14219708399301</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
         <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>248.5963550234617</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669861</v>
+        <v>453.8659557426996</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584443</v>
+        <v>659.6893205788037</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470431</v>
+        <v>833.7842159674025</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456587</v>
+        <v>959.231792566018</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="V4" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="W4" t="n">
-        <v>959.2317925660185</v>
+        <v>959.231792566018</v>
       </c>
       <c r="X4" t="n">
-        <v>731.2422416680012</v>
+        <v>731.2422416680007</v>
       </c>
       <c r="Y4" t="n">
-        <v>510.449662524471</v>
+        <v>510.4496625244706</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.7165680526437</v>
+        <v>947.134661769126</v>
       </c>
       <c r="C5" t="n">
-        <v>574.7165680526437</v>
+        <v>653.9119229667554</v>
       </c>
       <c r="D5" t="n">
-        <v>281.4938292502744</v>
+        <v>360.6891841643848</v>
       </c>
       <c r="E5" t="n">
-        <v>43.0396538586144</v>
+        <v>360.6891841643848</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941093</v>
+        <v>316.4459797155183</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951913</v>
+        <v>59.1367338295197</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444945</v>
+        <v>163.7002683444956</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084621</v>
+        <v>330.3223409084637</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162837</v>
+        <v>547.3909387162863</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537013</v>
+        <v>772.5857417537045</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416872</v>
+        <v>971.8955472416911</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171408</v>
+        <v>1107.500854171413</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657382</v>
+        <v>947.134661769126</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657382</v>
+        <v>947.134661769126</v>
       </c>
       <c r="V5" t="n">
-        <v>867.9393068550129</v>
+        <v>947.134661769126</v>
       </c>
       <c r="W5" t="n">
-        <v>867.9393068550129</v>
+        <v>947.134661769126</v>
       </c>
       <c r="X5" t="n">
-        <v>867.9393068550129</v>
+        <v>947.134661769126</v>
       </c>
       <c r="Y5" t="n">
-        <v>867.9393068550129</v>
+        <v>947.134661769126</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="C6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="D6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508894</v>
+        <v>25.7952243050893</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063286</v>
+        <v>108.3459783063294</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119396</v>
+        <v>265.668195611941</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702514</v>
+        <v>468.6126709702535</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269115</v>
+        <v>691.3371276269143</v>
       </c>
       <c r="O6" t="n">
-        <v>872.8666975145417</v>
+        <v>872.866697514545</v>
       </c>
       <c r="P6" t="n">
-        <v>999.2271150356676</v>
+        <v>999.2271150356714</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891823</v>
+        <v>1145.912305891828</v>
       </c>
       <c r="S6" t="n">
-        <v>1096.439841863647</v>
+        <v>1145.912305891828</v>
       </c>
       <c r="T6" t="n">
-        <v>1096.439841863647</v>
+        <v>1145.912305891828</v>
       </c>
       <c r="U6" t="n">
-        <v>1096.439841863647</v>
+        <v>917.7797300727796</v>
       </c>
       <c r="V6" t="n">
-        <v>861.2877336319041</v>
+        <v>682.6276218410369</v>
       </c>
       <c r="W6" t="n">
-        <v>607.0503769037024</v>
+        <v>428.3902651128353</v>
       </c>
       <c r="X6" t="n">
-        <v>399.1988766981696</v>
+        <v>220.5387649073024</v>
       </c>
       <c r="Y6" t="n">
-        <v>191.4385779332157</v>
+        <v>23.22324091314775</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>174.7362999911145</v>
+        <v>692.1430209260948</v>
       </c>
       <c r="C7" t="n">
-        <v>23.22324091314764</v>
+        <v>523.2068379981879</v>
       </c>
       <c r="D7" t="n">
-        <v>23.22324091314764</v>
+        <v>373.0901985858521</v>
       </c>
       <c r="E7" t="n">
-        <v>23.22324091314764</v>
+        <v>225.177105003459</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22324091314764</v>
+        <v>78.28715750554866</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314764</v>
+        <v>35.50147399739529</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314764</v>
+        <v>35.50147399739529</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314764</v>
+        <v>35.50147399739529</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314764</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279145</v>
+        <v>133.2846894279148</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993036</v>
+        <v>329.6518852993042</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276983</v>
+        <v>547.0826837276993</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730491</v>
+        <v>764.7780801730504</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967851</v>
+        <v>949.8387182967867</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195907</v>
+        <v>1084.669382195909</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="W7" t="n">
-        <v>805.1668948629017</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="X7" t="n">
-        <v>577.1773439648844</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="Y7" t="n">
-        <v>356.3847648213542</v>
+        <v>873.7914857563345</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218646</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218646</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="D8" t="n">
-        <v>918.0161179218646</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="E8" t="n">
-        <v>532.2278653236203</v>
+        <v>1119.253774927147</v>
       </c>
       <c r="F8" t="n">
-        <v>121.2419605340128</v>
+        <v>708.2678701375398</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>292.5631198618287</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4819,37 +4819,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218646</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218646</v>
+        <v>1505.042027525392</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
         <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1542.628316192938</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>1287.943827987051</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>998.5266579500903</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>770.537107052073</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
         <v>1373.553594266881</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803656</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979724</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000621</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,10 +5266,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5308,7 +5308,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5363,19 +5363,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5782,10 +5782,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5837,19 +5837,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5992,16 +5992,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6615,10 +6615,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7411,22 +7411,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7630,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
-        <v>66.784625889235</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923453</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>105.4351002038912</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>111.3252676074456</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506818</v>
+        <v>54.74236624506787</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.6722568460152</v>
+        <v>128.6722568460162</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D13" t="n">
-        <v>25.74504007796544</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>24.81829093850962</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>57.22910392194174</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>35.11263957635599</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>41.54258064659095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
@@ -26337,16 +26337,16 @@
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26355,7 +26355,7 @@
         <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26368,22 +26368,22 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210865</v>
+        <v>55881.32342211025</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276249</v>
+        <v>363279.8866276238</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440446</v>
+        <v>12992.59634440488</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666285</v>
+        <v>88656.33991666253</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060264</v>
+        <v>261062.8075060265</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431041</v>
+        <v>246054.6603431037</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683039</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437329</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302695</v>
+        <v>65162.40123302706</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-338147.582575669</v>
+        <v>-338147.5825756692</v>
       </c>
       <c r="C6" t="n">
-        <v>269208.98664658</v>
+        <v>269208.9866465788</v>
       </c>
       <c r="D6" t="n">
-        <v>36138.61859453164</v>
+        <v>36138.61859453286</v>
       </c>
       <c r="E6" t="n">
-        <v>3586.39991011435</v>
+        <v>3899.041239036232</v>
       </c>
       <c r="F6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="G6" t="n">
-        <v>511071.84153466</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="H6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635815</v>
       </c>
       <c r="I6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="J6" t="n">
-        <v>448327.5307511248</v>
+        <v>448640.1720800458</v>
       </c>
       <c r="K6" t="n">
-        <v>498079.2451902558</v>
+        <v>498391.8865191768</v>
       </c>
       <c r="L6" t="n">
-        <v>422415.5016179973</v>
+        <v>422728.1429469189</v>
       </c>
       <c r="M6" t="n">
-        <v>378464.5478057336</v>
+        <v>378777.1891346548</v>
       </c>
       <c r="N6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="O6" t="n">
-        <v>511071.8415346603</v>
+        <v>511384.4828635814</v>
       </c>
       <c r="P6" t="n">
-        <v>511071.8415346601</v>
+        <v>511384.4828635816</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575571</v>
+        <v>636.9329421575584</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143455</v>
+        <v>290.2905114143468</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26962,25 +26962,25 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949252</v>
+        <v>43.45684181949377</v>
       </c>
       <c r="D3" t="n">
-        <v>297.131949959982</v>
+        <v>297.1319499599811</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284092</v>
+        <v>50.48256327284232</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856932</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415047</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284069</v>
+        <v>50.48256327284232</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856935</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284092</v>
+        <v>50.48256327284232</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856932</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.925893521976</v>
+        <v>191.3039506280916</v>
       </c>
       <c r="C2" t="n">
-        <v>125.4649436295029</v>
+        <v>125.464943629503</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791783</v>
+        <v>114.8750934791784</v>
       </c>
       <c r="E2" t="n">
-        <v>190.5004790368728</v>
+        <v>142.1224219307573</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>100.8625966887994</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27514,19 +27514,19 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941498</v>
+        <v>11.88703501941509</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>200.1757113399419</v>
       </c>
     </row>
     <row r="4">
@@ -27554,10 +27554,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>105.4885722590706</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>105.4885722590711</v>
       </c>
       <c r="J4" t="n">
         <v>17.69584188176904</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.44333024913504</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>74.98238035666071</v>
       </c>
       <c r="D5" t="n">
-        <v>64.39253020633743</v>
+        <v>64.39253020633612</v>
       </c>
       <c r="E5" t="n">
-        <v>145.8607364345184</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>363.0752733373336</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>122.4516916599538</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735719</v>
+        <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401377</v>
+        <v>111.7608855401375</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157314</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493788</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>37.46174705578937</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27712,10 +27712,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337438</v>
+        <v>99.00406368337435</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370919</v>
+        <v>42.22754232370909</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>97.25815803634677</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>10.34032702309122</v>
       </c>
     </row>
     <row r="7">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>17.24889261144062</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>124.4845850847749</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
@@ -27797,7 +27797,7 @@
         <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340522</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441977</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
         <v>204.0001972153979</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>342.2524805466044</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>127.8252952739885</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>193.3475282784565</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.651317719713963e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834398</v>
+        <v>2.560534440834404</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219529</v>
+        <v>26.22307334219534</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026825</v>
+        <v>98.71500403026845</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977688</v>
+        <v>217.3221599977692</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782889</v>
+        <v>325.7095828782896</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719747</v>
+        <v>404.0715387719755</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341634</v>
+        <v>449.6074431341643</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141842</v>
+        <v>456.8825616141851</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681371</v>
+        <v>431.421247268138</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600378</v>
+        <v>368.2080532600386</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976559</v>
+        <v>276.5089135976564</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690639</v>
+        <v>160.8431715690643</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051392</v>
+        <v>58.34817857051403</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475259</v>
+        <v>11.20873951475261</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667519</v>
+        <v>0.2048427552667522</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772859</v>
+        <v>1.370006705772862</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312208</v>
+        <v>13.23138055312211</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770589</v>
+        <v>47.16909052770598</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888296</v>
+        <v>129.4355896888299</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756111</v>
+        <v>221.2260389756116</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916026</v>
+        <v>297.4657103916031</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758686</v>
+        <v>347.1284534758693</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264244</v>
+        <v>356.315910726425</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511415</v>
+        <v>325.9594463511422</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892049</v>
+        <v>261.6111927892055</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316372</v>
+        <v>174.8801542316376</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473946</v>
+        <v>85.06059178473963</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959672</v>
+        <v>25.44727367959677</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479197</v>
+        <v>5.522088432479207</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663549</v>
+        <v>0.09013202011663565</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611988</v>
+        <v>1.14856760061199</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180477</v>
+        <v>10.2118101218048</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749507</v>
+        <v>34.54056020749514</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326756</v>
+        <v>81.20372936326771</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438291</v>
+        <v>133.4426721438294</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400769</v>
+        <v>170.7606776400772</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577501</v>
+        <v>180.0431921577504</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645601</v>
+        <v>175.7621674645604</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846836</v>
+        <v>162.3448095846839</v>
       </c>
       <c r="P7" t="n">
-        <v>138.914030532199</v>
+        <v>138.9140305321992</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579113</v>
+        <v>96.17687426579131</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297174</v>
+        <v>51.64377593297185</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157437</v>
+        <v>20.01640082157441</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705767</v>
+        <v>4.907516111705776</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156306</v>
+        <v>0.06264914185156319</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>207.939011051685</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M21" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0753528219187</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
         <v>138.6157555714078</v>
@@ -34798,7 +34798,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>89.75123316395862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>129.6603935116481</v>
       </c>
       <c r="M4" t="n">
         <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>147.4099394863213</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
         <v>175.8534296854533</v>
@@ -34877,7 +34877,7 @@
         <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353372</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108246</v>
+        <v>36.27625547108289</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333083</v>
+        <v>105.619731833309</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019875</v>
+        <v>168.3051238019883</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068907</v>
+        <v>219.2612099068916</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175933</v>
+        <v>227.4694980175942</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464504</v>
+        <v>201.3230358464512</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047683</v>
+        <v>136.975057504769</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320638</v>
+        <v>54.20322372320689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022162929</v>
+        <v>2.597963022163185</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125215</v>
+        <v>83.38460000125261</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117284</v>
+        <v>158.9113306117289</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538503</v>
+        <v>204.9944195538509</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430911</v>
+        <v>224.9741986430917</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066971</v>
+        <v>183.3632019066977</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748747</v>
+        <v>127.6367853748752</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.5706369916309</v>
+        <v>163.5706369916323</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179463</v>
+        <v>111.1731803179466</v>
       </c>
       <c r="L7" t="n">
-        <v>198.350702900393</v>
+        <v>198.3507029003934</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195907</v>
+        <v>219.627069119591</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437887</v>
+        <v>219.894339843789</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987233</v>
+        <v>186.9299374987236</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970924</v>
+        <v>136.1925897970927</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409674</v>
+        <v>10.01483101409693</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>81.10138438501833</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
